--- a/app/data/plan/plan_2020-12-10.xlsx
+++ b/app/data/plan/plan_2020-12-10.xlsx
@@ -46,7 +46,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00E5B7B6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9DDDC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00CBC0D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F1DADA"/>
       </patternFill>
     </fill>
     <fill>
@@ -56,22 +71,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F1DADA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D9DDDC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00DAE5F1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E5B7B6"/>
       </patternFill>
     </fill>
   </fills>
@@ -107,22 +107,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -50225,22 +50225,22 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>3.3% варка, Сакко</t>
+          <t>2.7% варка, Альче, без лактозы</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Фиор Ди Латте</t>
+          <t>Для пиццы</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>Pretto</t>
+          <t>Unagrande</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,125 кг, ф/п, (8 шт)</t>
+          <t>Моцарелла без лактозы для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф</t>
         </is>
       </c>
       <c r="E2" s="4">
@@ -50256,10 +50256,10 @@
         <v/>
       </c>
       <c r="I2" s="5" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="J2" s="5">
-        <f>-(G2 + G3 + G4 + G5 + G6 + G7 + G8 + G9 + G10) / I2</f>
+        <f>-(G2) / I2</f>
         <v/>
       </c>
       <c r="K2" s="5">
@@ -50273,200 +50273,152 @@
       </c>
       <c r="R2" s="5" t="inlineStr">
         <is>
-          <t>[24, 23, 26, 27, 22, 29, 28, 31, 32]</t>
+          <t>[6]</t>
         </is>
       </c>
       <c r="S2" s="5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>Pretto</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,1 кг, ф/п, (8 шт)</t>
-        </is>
-      </c>
-      <c r="E3" s="4">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D3,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F3" s="4">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D3,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="G3" s="4">
-        <f>MIN(E3, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>Ваш выбор</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>Моцарелла Фиор ди Латте в воде "Ваш выбор", 50%, 0,1 кг, ф/п</t>
-        </is>
-      </c>
-      <c r="E4" s="4">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D4,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F4" s="4">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D4,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="G4" s="4">
-        <f>MIN(E4, 0)</f>
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>Красная птица</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>Моцарелла Фиор ди Латте в воде "Красная птица", 45%, 0,125 кг, ф/п</t>
-        </is>
-      </c>
-      <c r="E5" s="4">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>3.3% варка, Альче, без лактозы</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="inlineStr">
+        <is>
+          <t>Фиор Ди Латте</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t>ВкусВилл</t>
+        </is>
+      </c>
+      <c r="D5" s="7" t="inlineStr">
+        <is>
+          <t>Моцарелла в воде Фиор Ди Латте без лактозы "ВкусВилл", 45%, 0,125 кг, ф/п (8 шт)</t>
+        </is>
+      </c>
+      <c r="E5" s="7">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D5,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="7">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D5,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="7">
         <f>MIN(E5, 0)</f>
         <v/>
       </c>
-    </row>
-    <row r="6">
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Fine Life</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Моцарелла Фиор ди латте в воде "Fine Life", 45%, 0,125 кг, ф/п</t>
-        </is>
-      </c>
-      <c r="E6" s="4">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D6,'файл остатки'!$A$5:$DK$5,0))</f>
+      <c r="I5" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J5" s="5">
+        <f>-(G5) / I5</f>
         <v/>
       </c>
-      <c r="F6" s="4">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D6,'файл остатки'!$A$5:$DK$5,0))</f>
+      <c r="K5" s="5">
+        <f>ROUND(J5)</f>
         <v/>
       </c>
-      <c r="G6" s="4">
-        <f>MIN(E6, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="6" t="inlineStr">
-        <is>
-          <t>Чильеджина</t>
-        </is>
-      </c>
-      <c r="C7" s="7" t="inlineStr">
-        <is>
-          <t>Pretto</t>
-        </is>
-      </c>
-      <c r="D7" s="7" t="inlineStr">
-        <is>
-          <t>Моцарелла Чильеджина в воде "Pretto", 45%, 0,1 кг, ф/п, (8 шт)</t>
-        </is>
-      </c>
-      <c r="E7" s="7">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D7,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F7" s="7">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D7,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="G7" s="7">
-        <f>MIN(E7, 0)</f>
-        <v/>
+      <c r="R5" s="5" t="inlineStr">
+        <is>
+          <t>[9]</t>
+        </is>
+      </c>
+      <c r="S5" s="5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
-      <c r="C8" s="7" t="inlineStr">
-        <is>
-          <t>Ваш выбор</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr">
-        <is>
-          <t>Моцарелла Чильеджина в воде "Ваш выбор", 50%, 0,1 кг, ф/п</t>
-        </is>
-      </c>
-      <c r="E8" s="7">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>2.7% варка, Альче</t>
+        </is>
+      </c>
+      <c r="B8" s="8" t="inlineStr">
+        <is>
+          <t>Сулугуни</t>
+        </is>
+      </c>
+      <c r="C8" s="9" t="inlineStr">
+        <is>
+          <t>Умалат</t>
+        </is>
+      </c>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>Сулугуни "Умалат", 45%, 0,28 кг, т/ф, (8 шт)</t>
+        </is>
+      </c>
+      <c r="E8" s="9">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D8,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="9">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D8,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="9">
         <f>MIN(E8, 0)</f>
         <v/>
       </c>
+      <c r="I8" s="5" t="n">
+        <v>850</v>
+      </c>
+      <c r="J8" s="5">
+        <f>-(G8 + G9 + G10 + G11 + G12 + G13 + G14 + G15 + G16 + G17 + G18) / I8</f>
+        <v/>
+      </c>
+      <c r="K8" s="5">
+        <f>ROUND(J8)</f>
+        <v/>
+      </c>
+      <c r="R8" s="5" t="inlineStr">
+        <is>
+          <t>[39, 41, 37, 40, 34, 14, 18, 20, 17, 4, 3]</t>
+        </is>
+      </c>
+      <c r="S8" s="5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
-      <c r="C9" s="7" t="inlineStr">
-        <is>
-          <t>Красная птица</t>
-        </is>
-      </c>
-      <c r="D9" s="7" t="inlineStr">
-        <is>
-          <t>Моцарелла Чильеджина в воде "Красная птица", 45%, 0,125 кг, ф/п</t>
-        </is>
-      </c>
-      <c r="E9" s="7">
+      <c r="C9" s="9" t="inlineStr">
+        <is>
+          <t>Умалат</t>
+        </is>
+      </c>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>Сулугуни палочки "Умалат", 45%, 0,12 кг, т/ф (10 шт.)</t>
+        </is>
+      </c>
+      <c r="E9" s="9">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D9,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="9">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D9,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="9">
         <f>MIN(E9, 0)</f>
         <v/>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>Сулугуни</t>
-        </is>
-      </c>
       <c r="C10" s="9" t="inlineStr">
         <is>
-          <t>Fine Life</t>
+          <t>Умалат</t>
         </is>
       </c>
       <c r="D10" s="9" t="inlineStr">
         <is>
-          <t>Моцарелла Чильеджина в воде "Fine Life", 45%, 0,125 кг, ф/п</t>
+          <t>Сулугуни "Умалат" (для хачапури), 45%, 0,12 кг, ф/п</t>
         </is>
       </c>
       <c r="E10" s="9">
@@ -50482,15 +50434,58 @@
         <v/>
       </c>
     </row>
+    <row r="11">
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>ВкусВилл</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Сулугуни кубики "ВкусВилл", 45%, 0,12 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="E11" s="9">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D11,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F11" s="9">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D11,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="G11" s="9">
+        <f>MIN(E11, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="9" t="inlineStr">
+        <is>
+          <t>Умалат</t>
+        </is>
+      </c>
+      <c r="D12" s="9" t="inlineStr">
+        <is>
+          <t>Сулугуни  "Умалат", 45%, 0,37 кг, т/ф, (6 шт)</t>
+        </is>
+      </c>
+      <c r="E12" s="9">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D12,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F12" s="9">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D12,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="G12" s="9">
+        <f>MIN(E12, 0)</f>
+        <v/>
+      </c>
+    </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>3.3% варка, Альче</t>
-        </is>
-      </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Фиор Ди Латте</t>
+          <t>Для пиццы</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
@@ -50500,7 +50495,7 @@
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>Моцарелла сердечки в воде "Unagrande", 45%, 0,125 кг, ф/п, (8 шт)</t>
+          <t>Моцарелла для пиццы "Unagrande", 45%, 0,46 кг, в/у, (8 шт)</t>
         </is>
       </c>
       <c r="E13" s="4">
@@ -50515,66 +50510,80 @@
         <f>MIN(E13, 0)</f>
         <v/>
       </c>
-      <c r="I13" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J13" s="5">
-        <f>-(G13 + G14) / I13</f>
-        <v/>
-      </c>
-      <c r="K13" s="5">
-        <f>ROUND(J13)</f>
-        <v/>
-      </c>
-      <c r="R13" s="5" t="inlineStr">
-        <is>
-          <t>[21, 11]</t>
-        </is>
-      </c>
-      <c r="S13" s="5" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="14">
-      <c r="B14" s="6" t="inlineStr">
-        <is>
-          <t>Чильеджина</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>Unagrande</t>
         </is>
       </c>
-      <c r="D14" s="7" t="inlineStr">
-        <is>
-          <t>Моцарелла в воде Чильеджина без лактозы "Unagrande", 45%, 0,125 кг, ф/п</t>
-        </is>
-      </c>
-      <c r="E14" s="7">
+      <c r="D14" s="4" t="inlineStr">
+        <is>
+          <t>Моцарелла палочки "Unagrande", 45%, 0,12 кг, т/ф</t>
+        </is>
+      </c>
+      <c r="E14" s="4">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D14,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="4">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D14,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="4">
         <f>MIN(E14, 0)</f>
         <v/>
       </c>
     </row>
+    <row r="15">
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>ВкусВилл</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="inlineStr">
+        <is>
+          <t>Моцарелла палочки "ВкусВилл", 45%, 0,12 кг, т/ф</t>
+        </is>
+      </c>
+      <c r="E15" s="4">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D15,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F15" s="4">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D15,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="G15" s="4">
+        <f>MIN(E15, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="inlineStr">
+        <is>
+          <t>Моцарелла для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф, (8 шт)</t>
+        </is>
+      </c>
+      <c r="E16" s="4">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D16,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F16" s="4">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D16,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="G16" s="4">
+        <f>MIN(E16, 0)</f>
+        <v/>
+      </c>
+    </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>3.6% варка, Альче</t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>Фиор Ди Латте</t>
-        </is>
-      </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
           <t>Unagrande</t>
@@ -50582,7 +50591,7 @@
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>Моцарелла Фиор ди латте в воде "Unagrande", 50%, 0,125 кг, ф/п, (8 шт)</t>
+          <t>Моцарелла "Unagrande", 45%, 3 кг, пл/л</t>
         </is>
       </c>
       <c r="E17" s="4">
@@ -50597,25 +50606,6 @@
         <f>MIN(E17, 0)</f>
         <v/>
       </c>
-      <c r="I17" s="5" t="n">
-        <v>850</v>
-      </c>
-      <c r="J17" s="5">
-        <f>-(G17 + G18 + G19 + G20) / I17</f>
-        <v/>
-      </c>
-      <c r="K17" s="5">
-        <f>ROUND(J17)</f>
-        <v/>
-      </c>
-      <c r="R17" s="5" t="inlineStr">
-        <is>
-          <t>[42, 25, 12, 30]</t>
-        </is>
-      </c>
-      <c r="S17" s="5" t="n">
-        <v>9</v>
-      </c>
     </row>
     <row r="18">
       <c r="C18" s="4" t="inlineStr">
@@ -50625,7 +50615,7 @@
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>Моцарелла Грандиоза в воде "Unagrande", 50%, 0,2 кг, ф/п</t>
+          <t>Моцарелла "Unagrande", 45%, 0,12 кг, ф/п (кубики)</t>
         </is>
       </c>
       <c r="E18" s="4">
@@ -50641,131 +50631,126 @@
         <v/>
       </c>
     </row>
-    <row r="19">
-      <c r="B19" s="6" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>3.6% варка, Альче</t>
+        </is>
+      </c>
+      <c r="B21" s="6" t="inlineStr">
+        <is>
+          <t>Фиор Ди Латте</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="D21" s="7" t="inlineStr">
+        <is>
+          <t>Моцарелла Фиор ди латте в воде "Unagrande", 50%, 0,125 кг, ф/п, (8 шт)</t>
+        </is>
+      </c>
+      <c r="E21" s="7">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D21,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F21" s="7">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D21,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="G21" s="7">
+        <f>MIN(E21, 0)</f>
+        <v/>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>850</v>
+      </c>
+      <c r="J21" s="5">
+        <f>-(G21 + G22 + G23 + G24) / I21</f>
+        <v/>
+      </c>
+      <c r="K21" s="5">
+        <f>ROUND(J21)</f>
+        <v/>
+      </c>
+      <c r="R21" s="5" t="inlineStr">
+        <is>
+          <t>[42, 25, 12, 30]</t>
+        </is>
+      </c>
+      <c r="S21" s="5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" s="7" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="D22" s="7" t="inlineStr">
+        <is>
+          <t>Моцарелла Грандиоза в воде "Unagrande", 50%, 0,2 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="E22" s="7">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D22,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F22" s="7">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D22,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="G22" s="7">
+        <f>MIN(E22, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="10" t="inlineStr">
         <is>
           <t>Чильеджина</t>
         </is>
       </c>
-      <c r="C19" s="7" t="inlineStr">
+      <c r="C23" s="11" t="inlineStr">
         <is>
           <t>Unagrande</t>
         </is>
       </c>
-      <c r="D19" s="7" t="inlineStr">
+      <c r="D23" s="11" t="inlineStr">
         <is>
           <t>Моцарелла Чильеджина в воде "Unagrande", 50%, 0,125, ф/п, (8 шт)</t>
         </is>
       </c>
-      <c r="E19" s="7">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D19,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F19" s="7">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D19,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="G19" s="7">
-        <f>MIN(E19, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="10" t="inlineStr">
-        <is>
-          <t>Моцарелла</t>
-        </is>
-      </c>
-      <c r="C20" s="11" t="inlineStr">
-        <is>
-          <t>Unagrande</t>
-        </is>
-      </c>
-      <c r="D20" s="11" t="inlineStr">
-        <is>
-          <t>Качокавалло "Unagrande" (ОК), 45%, кг</t>
-        </is>
-      </c>
-      <c r="E20" s="11">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D20,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F20" s="11">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D20,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="G20" s="11">
-        <f>MIN(E20, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>2.7% варка, Сакко</t>
-        </is>
-      </c>
-      <c r="B23" s="8" t="inlineStr">
-        <is>
-          <t>Сулугуни</t>
-        </is>
-      </c>
-      <c r="C23" s="9" t="inlineStr">
-        <is>
-          <t>Умалат</t>
-        </is>
-      </c>
-      <c r="D23" s="9" t="inlineStr">
-        <is>
-          <t>Сулугуни "Маркет Перекресток", 45%, 0,28 кг, т/ф</t>
-        </is>
-      </c>
-      <c r="E23" s="9">
+      <c r="E23" s="11">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D23,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="11">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D23,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="11">
         <f>MIN(E23, 0)</f>
         <v/>
       </c>
-      <c r="I23" s="5" t="n">
-        <v>850</v>
-      </c>
-      <c r="J23" s="5">
-        <f>-(G23 + G24 + G25 + G26) / I23</f>
-        <v/>
-      </c>
-      <c r="K23" s="5">
-        <f>ROUND(J23)</f>
-        <v/>
-      </c>
-      <c r="R23" s="5" t="inlineStr">
-        <is>
-          <t>[36, 16, 1, 33]</t>
-        </is>
-      </c>
-      <c r="S23" s="5" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="24">
       <c r="B24" s="12" t="inlineStr">
         <is>
-          <t>Для пиццы</t>
+          <t>Моцарелла</t>
         </is>
       </c>
       <c r="C24" s="13" t="inlineStr">
         <is>
-          <t>Fine Life</t>
+          <t>Unagrande</t>
         </is>
       </c>
       <c r="D24" s="13" t="inlineStr">
         <is>
-          <t>Моцарелла для пиццы «Fine Life», 45%, 0,37 кг, т/ф, (6 шт)</t>
+          <t>Качокавалло "Unagrande" (ОК), 45%, кг</t>
         </is>
       </c>
       <c r="E24" s="13">
@@ -50781,424 +50766,458 @@
         <v/>
       </c>
     </row>
-    <row r="25">
-      <c r="C25" s="13" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>3.3% варка, Альче</t>
+        </is>
+      </c>
+      <c r="B27" s="6" t="inlineStr">
+        <is>
+          <t>Фиор Ди Латте</t>
+        </is>
+      </c>
+      <c r="C27" s="7" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="D27" s="7" t="inlineStr">
+        <is>
+          <t>Моцарелла сердечки в воде "Unagrande", 45%, 0,125 кг, ф/п, (8 шт)</t>
+        </is>
+      </c>
+      <c r="E27" s="7">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D27,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F27" s="7">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D27,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="G27" s="7">
+        <f>MIN(E27, 0)</f>
+        <v/>
+      </c>
+      <c r="I27" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J27" s="5">
+        <f>-(G27 + G28) / I27</f>
+        <v/>
+      </c>
+      <c r="K27" s="5">
+        <f>ROUND(J27)</f>
+        <v/>
+      </c>
+      <c r="R27" s="5" t="inlineStr">
+        <is>
+          <t>[21, 11]</t>
+        </is>
+      </c>
+      <c r="S27" s="5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="10" t="inlineStr">
+        <is>
+          <t>Чильеджина</t>
+        </is>
+      </c>
+      <c r="C28" s="11" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
+      <c r="D28" s="11" t="inlineStr">
+        <is>
+          <t>Моцарелла в воде Чильеджина без лактозы "Unagrande", 45%, 0,125 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="E28" s="11">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D28,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F28" s="11">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D28,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="G28" s="11">
+        <f>MIN(E28, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>3.3% варка, Сакко</t>
+        </is>
+      </c>
+      <c r="B31" s="6" t="inlineStr">
+        <is>
+          <t>Фиор Ди Латте</t>
+        </is>
+      </c>
+      <c r="C31" s="7" t="inlineStr">
         <is>
           <t>Pretto</t>
         </is>
       </c>
-      <c r="D25" s="13" t="inlineStr">
-        <is>
-          <t>Моцарелла "Pretto" (для бутербродов), 45%, 0,2 кг, т/ф, (9 шт)</t>
-        </is>
-      </c>
-      <c r="E25" s="13">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D25,'файл остатки'!$A$5:$DK$5,0))</f>
+      <c r="D31" s="7" t="inlineStr">
+        <is>
+          <t>Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,125 кг, ф/п, (8 шт)</t>
+        </is>
+      </c>
+      <c r="E31" s="7">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D31,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F25" s="13">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D25,'файл остатки'!$A$5:$DK$5,0))</f>
+      <c r="F31" s="7">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D31,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="G25" s="13">
-        <f>MIN(E25, 0)</f>
+      <c r="G31" s="7">
+        <f>MIN(E31, 0)</f>
         <v/>
       </c>
-    </row>
-    <row r="26">
-      <c r="C26" s="13" t="inlineStr">
-        <is>
-          <t>Metro Chef</t>
-        </is>
-      </c>
-      <c r="D26" s="13" t="inlineStr">
-        <is>
-          <t>Моцарелла шары "Metro Chef", 45%, кг, в/у</t>
-        </is>
-      </c>
-      <c r="E26" s="13">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D26,'файл остатки'!$A$5:$DK$5,0))</f>
+      <c r="I31" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J31" s="5">
+        <f>-(G31 + G32 + G33 + G34 + G35 + G36 + G37 + G38 + G39) / I31</f>
         <v/>
       </c>
-      <c r="F26" s="13">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D26,'файл остатки'!$A$5:$DK$5,0))</f>
+      <c r="K31" s="5">
+        <f>ROUND(J31)</f>
         <v/>
       </c>
-      <c r="G26" s="13">
-        <f>MIN(E26, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>2.7% варка, Альче, без лактозы</t>
-        </is>
-      </c>
-      <c r="B29" s="12" t="inlineStr">
-        <is>
-          <t>Для пиццы</t>
-        </is>
-      </c>
-      <c r="C29" s="13" t="inlineStr">
-        <is>
-          <t>Unagrande</t>
-        </is>
-      </c>
-      <c r="D29" s="13" t="inlineStr">
-        <is>
-          <t>Моцарелла без лактозы для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф</t>
-        </is>
-      </c>
-      <c r="E29" s="13">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D29,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F29" s="13">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D29,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="G29" s="13">
-        <f>MIN(E29, 0)</f>
-        <v/>
-      </c>
-      <c r="I29" s="5" t="n">
-        <v>850</v>
-      </c>
-      <c r="J29" s="5">
-        <f>-(G29) / I29</f>
-        <v/>
-      </c>
-      <c r="K29" s="5">
-        <f>ROUND(J29)</f>
-        <v/>
-      </c>
-      <c r="R29" s="5" t="inlineStr">
-        <is>
-          <t>[6]</t>
-        </is>
-      </c>
-      <c r="S29" s="5" t="n">
-        <v>3</v>
+      <c r="R31" s="5" t="inlineStr">
+        <is>
+          <t>[24, 23, 26, 27, 22, 29, 28, 31, 32]</t>
+        </is>
+      </c>
+      <c r="S31" s="5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>2.7% варка, Альче</t>
-        </is>
-      </c>
-      <c r="B32" s="8" t="inlineStr">
-        <is>
-          <t>Сулугуни</t>
-        </is>
-      </c>
-      <c r="C32" s="9" t="inlineStr">
-        <is>
-          <t>Умалат</t>
-        </is>
-      </c>
-      <c r="D32" s="9" t="inlineStr">
-        <is>
-          <t>Сулугуни "Умалат", 45%, 0,28 кг, т/ф, (8 шт)</t>
-        </is>
-      </c>
-      <c r="E32" s="9">
+      <c r="C32" s="7" t="inlineStr">
+        <is>
+          <t>Pretto</t>
+        </is>
+      </c>
+      <c r="D32" s="7" t="inlineStr">
+        <is>
+          <t>Моцарелла Фиор Ди Латте в воде "Pretto", 45%, 0,1 кг, ф/п, (8 шт)</t>
+        </is>
+      </c>
+      <c r="E32" s="7">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D32,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="7">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D32,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="7">
         <f>MIN(E32, 0)</f>
         <v/>
       </c>
-      <c r="I32" s="5" t="n">
-        <v>850</v>
-      </c>
-      <c r="J32" s="5">
-        <f>-(G32 + G33 + G34 + G35 + G36 + G37 + G38 + G39 + G40 + G41 + G42) / I32</f>
-        <v/>
-      </c>
-      <c r="K32" s="5">
-        <f>ROUND(J32)</f>
-        <v/>
-      </c>
-      <c r="R32" s="5" t="inlineStr">
-        <is>
-          <t>[39, 41, 37, 40, 34, 14, 18, 20, 17, 4, 3]</t>
-        </is>
-      </c>
-      <c r="S32" s="5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="33">
-      <c r="C33" s="9" t="inlineStr">
-        <is>
-          <t>Умалат</t>
-        </is>
-      </c>
-      <c r="D33" s="9" t="inlineStr">
-        <is>
-          <t>Сулугуни палочки "Умалат", 45%, 0,12 кг, т/ф (10 шт.)</t>
-        </is>
-      </c>
-      <c r="E33" s="9">
+      <c r="C33" s="7" t="inlineStr">
+        <is>
+          <t>Ваш выбор</t>
+        </is>
+      </c>
+      <c r="D33" s="7" t="inlineStr">
+        <is>
+          <t>Моцарелла Фиор ди Латте в воде "Ваш выбор", 50%, 0,1 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="E33" s="7">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D33,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="7">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D33,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="7">
         <f>MIN(E33, 0)</f>
         <v/>
       </c>
     </row>
     <row r="34">
-      <c r="C34" s="9" t="inlineStr">
-        <is>
-          <t>Умалат</t>
-        </is>
-      </c>
-      <c r="D34" s="9" t="inlineStr">
-        <is>
-          <t>Сулугуни "Умалат" (для хачапури), 45%, 0,12 кг, ф/п</t>
-        </is>
-      </c>
-      <c r="E34" s="9">
+      <c r="C34" s="7" t="inlineStr">
+        <is>
+          <t>Красная птица</t>
+        </is>
+      </c>
+      <c r="D34" s="7" t="inlineStr">
+        <is>
+          <t>Моцарелла Фиор ди Латте в воде "Красная птица", 45%, 0,125 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="E34" s="7">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D34,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="7">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D34,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="7">
         <f>MIN(E34, 0)</f>
         <v/>
       </c>
     </row>
     <row r="35">
-      <c r="C35" s="9" t="inlineStr">
-        <is>
-          <t>ВкусВилл</t>
-        </is>
-      </c>
-      <c r="D35" s="9" t="inlineStr">
-        <is>
-          <t>Сулугуни кубики "ВкусВилл", 45%, 0,12 кг, ф/п</t>
-        </is>
-      </c>
-      <c r="E35" s="9">
+      <c r="C35" s="7" t="inlineStr">
+        <is>
+          <t>Fine Life</t>
+        </is>
+      </c>
+      <c r="D35" s="7" t="inlineStr">
+        <is>
+          <t>Моцарелла Фиор ди латте в воде "Fine Life", 45%, 0,125 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="E35" s="7">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D35,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="7">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D35,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="7">
         <f>MIN(E35, 0)</f>
         <v/>
       </c>
     </row>
     <row r="36">
-      <c r="C36" s="9" t="inlineStr">
-        <is>
-          <t>Умалат</t>
-        </is>
-      </c>
-      <c r="D36" s="9" t="inlineStr">
-        <is>
-          <t>Сулугуни  "Умалат", 45%, 0,37 кг, т/ф, (6 шт)</t>
-        </is>
-      </c>
-      <c r="E36" s="9">
+      <c r="B36" s="10" t="inlineStr">
+        <is>
+          <t>Чильеджина</t>
+        </is>
+      </c>
+      <c r="C36" s="11" t="inlineStr">
+        <is>
+          <t>Pretto</t>
+        </is>
+      </c>
+      <c r="D36" s="11" t="inlineStr">
+        <is>
+          <t>Моцарелла Чильеджина в воде "Pretto", 45%, 0,1 кг, ф/п, (8 шт)</t>
+        </is>
+      </c>
+      <c r="E36" s="11">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D36,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="11">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D36,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="11">
         <f>MIN(E36, 0)</f>
         <v/>
       </c>
     </row>
     <row r="37">
-      <c r="B37" s="12" t="inlineStr">
-        <is>
-          <t>Для пиццы</t>
-        </is>
-      </c>
-      <c r="C37" s="13" t="inlineStr">
-        <is>
-          <t>Unagrande</t>
-        </is>
-      </c>
-      <c r="D37" s="13" t="inlineStr">
-        <is>
-          <t>Моцарелла для пиццы "Unagrande", 45%, 0,46 кг, в/у, (8 шт)</t>
-        </is>
-      </c>
-      <c r="E37" s="13">
+      <c r="C37" s="11" t="inlineStr">
+        <is>
+          <t>Ваш выбор</t>
+        </is>
+      </c>
+      <c r="D37" s="11" t="inlineStr">
+        <is>
+          <t>Моцарелла Чильеджина в воде "Ваш выбор", 50%, 0,1 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="E37" s="11">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D37,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="11">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D37,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="11">
         <f>MIN(E37, 0)</f>
         <v/>
       </c>
     </row>
     <row r="38">
-      <c r="C38" s="13" t="inlineStr">
-        <is>
-          <t>Unagrande</t>
-        </is>
-      </c>
-      <c r="D38" s="13" t="inlineStr">
-        <is>
-          <t>Моцарелла палочки "Unagrande", 45%, 0,12 кг, т/ф</t>
-        </is>
-      </c>
-      <c r="E38" s="13">
+      <c r="C38" s="11" t="inlineStr">
+        <is>
+          <t>Красная птица</t>
+        </is>
+      </c>
+      <c r="D38" s="11" t="inlineStr">
+        <is>
+          <t>Моцарелла Чильеджина в воде "Красная птица", 45%, 0,125 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="E38" s="11">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D38,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="11">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D38,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="11">
         <f>MIN(E38, 0)</f>
         <v/>
       </c>
     </row>
     <row r="39">
-      <c r="C39" s="13" t="inlineStr">
-        <is>
-          <t>ВкусВилл</t>
-        </is>
-      </c>
-      <c r="D39" s="13" t="inlineStr">
-        <is>
-          <t>Моцарелла палочки "ВкусВилл", 45%, 0,12 кг, т/ф</t>
-        </is>
-      </c>
-      <c r="E39" s="13">
+      <c r="B39" s="8" t="inlineStr">
+        <is>
+          <t>Сулугуни</t>
+        </is>
+      </c>
+      <c r="C39" s="9" t="inlineStr">
+        <is>
+          <t>Fine Life</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>Моцарелла Чильеджина в воде "Fine Life", 45%, 0,125 кг, ф/п</t>
+        </is>
+      </c>
+      <c r="E39" s="9">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D39,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="9">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D39,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="9">
         <f>MIN(E39, 0)</f>
         <v/>
       </c>
     </row>
-    <row r="40">
-      <c r="C40" s="13" t="inlineStr">
-        <is>
-          <t>Unagrande</t>
-        </is>
-      </c>
-      <c r="D40" s="13" t="inlineStr">
-        <is>
-          <t>Моцарелла для сэндвичей "Unagrande", 45%, 0,28 кг, т/ф, (8 шт)</t>
-        </is>
-      </c>
-      <c r="E40" s="13">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D40,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F40" s="13">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D40,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="G40" s="13">
-        <f>MIN(E40, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41">
-      <c r="C41" s="13" t="inlineStr">
-        <is>
-          <t>Unagrande</t>
-        </is>
-      </c>
-      <c r="D41" s="13" t="inlineStr">
-        <is>
-          <t>Моцарелла "Unagrande", 45%, 3 кг, пл/л</t>
-        </is>
-      </c>
-      <c r="E41" s="13">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D41,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="F41" s="13">
-        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D41,'файл остатки'!$A$5:$DK$5,0))</f>
-        <v/>
-      </c>
-      <c r="G41" s="13">
-        <f>MIN(E41, 0)</f>
-        <v/>
-      </c>
-    </row>
     <row r="42">
-      <c r="C42" s="13" t="inlineStr">
-        <is>
-          <t>Unagrande</t>
-        </is>
-      </c>
-      <c r="D42" s="13" t="inlineStr">
-        <is>
-          <t>Моцарелла "Unagrande", 45%, 0,12 кг, ф/п (кубики)</t>
-        </is>
-      </c>
-      <c r="E42" s="13">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>2.7% варка, Сакко</t>
+        </is>
+      </c>
+      <c r="B42" s="8" t="inlineStr">
+        <is>
+          <t>Сулугуни</t>
+        </is>
+      </c>
+      <c r="C42" s="9" t="inlineStr">
+        <is>
+          <t>Умалат</t>
+        </is>
+      </c>
+      <c r="D42" s="9" t="inlineStr">
+        <is>
+          <t>Сулугуни "Маркет Перекресток", 45%, 0,28 кг, т/ф</t>
+        </is>
+      </c>
+      <c r="E42" s="9">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D42,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="9">
         <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D42,'файл остатки'!$A$5:$DK$5,0))</f>
         <v/>
       </c>
-      <c r="G42" s="13">
+      <c r="G42" s="9">
         <f>MIN(E42, 0)</f>
         <v/>
       </c>
+      <c r="I42" s="5" t="n">
+        <v>850</v>
+      </c>
+      <c r="J42" s="5">
+        <f>-(G42 + G43 + G44 + G45) / I42</f>
+        <v/>
+      </c>
+      <c r="K42" s="5">
+        <f>ROUND(J42)</f>
+        <v/>
+      </c>
+      <c r="R42" s="5" t="inlineStr">
+        <is>
+          <t>[36, 16, 1, 33]</t>
+        </is>
+      </c>
+      <c r="S42" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Для пиццы</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>Fine Life</t>
+        </is>
+      </c>
+      <c r="D43" s="4" t="inlineStr">
+        <is>
+          <t>Моцарелла для пиццы «Fine Life», 45%, 0,37 кг, т/ф, (6 шт)</t>
+        </is>
+      </c>
+      <c r="E43" s="4">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D43,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F43" s="4">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D43,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="G43" s="4">
+        <f>MIN(E43, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>Pretto</t>
+        </is>
+      </c>
+      <c r="D44" s="4" t="inlineStr">
+        <is>
+          <t>Моцарелла "Pretto" (для бутербродов), 45%, 0,2 кг, т/ф, (9 шт)</t>
+        </is>
+      </c>
+      <c r="E44" s="4">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$1,'файл остатки'!$A$5:$A$228,0),MATCH(D44,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="F44" s="4">
+        <f>INDEX('файл остатки'!$A$5:$DK$265,MATCH($O$2,'файл остатки'!$A$5:$A$228,0),MATCH(D44,'файл остатки'!$A$5:$DK$5,0))</f>
+        <v/>
+      </c>
+      <c r="G44" s="4">
+        <f>MIN(E44, 0)</f>
+        <v/>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="inlineStr">
-        <is>
-          <t>3.3% варка, Альче, без лактозы</t>
-        </is>
-      </c>
-      <c r="B45" s="3" t="inlineStr">
-        <is>
-          <t>Фиор Ди Латте</t>
-        </is>
-      </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>ВкусВилл</t>
+          <t>Metro Chef</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>Моцарелла в воде Фиор Ди Латте без лактозы "ВкусВилл", 45%, 0,125 кг, ф/п (8 шт)</t>
+          <t>Моцарелла шары "Metro Chef", 45%, кг, в/у</t>
         </is>
       </c>
       <c r="E45" s="4">
@@ -51213,49 +51232,30 @@
         <f>MIN(E45, 0)</f>
         <v/>
       </c>
-      <c r="I45" s="5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J45" s="5">
-        <f>-(G45) / I45</f>
-        <v/>
-      </c>
-      <c r="K45" s="5">
-        <f>ROUND(J45)</f>
-        <v/>
-      </c>
-      <c r="R45" s="5" t="inlineStr">
-        <is>
-          <t>[9]</t>
-        </is>
-      </c>
-      <c r="S45" s="5" t="n">
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="B13"/>
-    <mergeCell ref="B14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19"/>
-    <mergeCell ref="B20"/>
-    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B2"/>
+    <mergeCell ref="A2"/>
+    <mergeCell ref="B5"/>
+    <mergeCell ref="A5"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="A8:A18"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B29"/>
-    <mergeCell ref="A29"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="A32:A42"/>
-    <mergeCell ref="B45"/>
-    <mergeCell ref="A45"/>
+    <mergeCell ref="B24"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B27"/>
+    <mergeCell ref="B28"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39"/>
+    <mergeCell ref="A31:A39"/>
+    <mergeCell ref="B42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A42:A45"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
